--- a/scrap_files/negative.xlsx
+++ b/scrap_files/negative.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Jupyter Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Documents\GitHub\vech-communism\scrap_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6CF8B-6D19-412E-A9C2-5820DEE81306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B365029-38F6-4F07-9321-EE18566AAB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5323,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
